--- a/TOMES_Entity_Dictionary.xlsx
+++ b/TOMES_Entity_Dictionary.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitin\Dropbox\TOMES\GitHub\tomes_entities\dictionaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{44026FF8-93C0-4F82-9689-13DEBCF61BB6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866A3F84-C0C5-414C-9E2B-0609C6D486F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9450" windowWidth="20400" windowHeight="10410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="README" sheetId="2" r:id="rId1"/>
-    <sheet name="Entities" sheetId="3" r:id="rId2"/>
+    <sheet name="Entities" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Entities!$A$1:$F$320</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Entities!$A$1:$F$320</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="478">
   <si>
     <t>pattern</t>
   </si>
@@ -1412,12 +1411,6 @@
   </si>
   <si>
     <t>Credit or debit card number.</t>
-  </si>
-  <si>
-    <t>For information on the "Entities" worksheet schema, please see "entity_dictionary_template.xlsx".</t>
-  </si>
-  <si>
-    <t>Patterns using regular expressions and TOMES Patterns are highlighted in green via Conditional Formatting.</t>
   </si>
   <si>
     <t>TOMES.email_address</t>
@@ -1470,9 +1463,6 @@
   </si>
   <si>
     <t>TOMES_PATTERN: {"(?!000)([0-6][0-9]{2}|7([0-6][0-9]{1}|7[012]))"}, {" ", "-"}, {"(?!00)[0-9]{2}"}, {" ", "-"}, {"(?!0000)[0-9]{4}"}</t>
-  </si>
-  <si>
-    <t>To learn more about the regular expression and TOMES Patterns, see the text files in the "./regexs" folder.</t>
   </si>
 </sst>
 </file>
@@ -1928,36 +1918,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>480</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F319"/>
   <sheetViews>
@@ -2005,7 +1965,7 @@
         <v>449</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D2" s="8" t="b">
         <v>1</v>
@@ -2026,13 +1986,13 @@
         <v>454</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D3" s="24" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>79</v>
@@ -7084,10 +7044,10 @@
         <v>0243</v>
       </c>
       <c r="B244" s="27" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D244" s="8" t="b">
         <v>1</v>
@@ -7105,7 +7065,7 @@
         <v>0244</v>
       </c>
       <c r="B245" s="27" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C245" s="21" t="s">
         <v>455</v>
@@ -7126,7 +7086,7 @@
         <v>0245</v>
       </c>
       <c r="B246" s="27" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C246" s="21" t="s">
         <v>436</v>
@@ -7147,7 +7107,7 @@
         <v>0246</v>
       </c>
       <c r="B247" s="28" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C247" s="31" t="s">
         <v>459</v>
@@ -7168,7 +7128,7 @@
         <v>0247</v>
       </c>
       <c r="B248" s="28" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C248" s="31" t="s">
         <v>458</v>
@@ -7189,7 +7149,7 @@
         <v>0248</v>
       </c>
       <c r="B249" s="28" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C249" s="31" t="s">
         <v>457</v>
@@ -7210,7 +7170,7 @@
         <v>0249</v>
       </c>
       <c r="B250" s="28" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C250" s="31" t="s">
         <v>456</v>
@@ -7231,10 +7191,10 @@
         <v>0250</v>
       </c>
       <c r="B251" s="29" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C251" s="19" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D251" s="4" t="b">
         <v>1</v>
@@ -7252,7 +7212,7 @@
         <v>0251</v>
       </c>
       <c r="B252" s="29" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C252" s="19" t="s">
         <v>328</v>
@@ -7273,7 +7233,7 @@
         <v>0252</v>
       </c>
       <c r="B253" s="28" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C253" s="31" t="s">
         <v>327</v>
@@ -7294,7 +7254,7 @@
         <v>0253</v>
       </c>
       <c r="B254" s="28" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C254" s="31" t="s">
         <v>347</v>
@@ -7315,7 +7275,7 @@
         <v>0254</v>
       </c>
       <c r="B255" s="27" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C255" s="21" t="s">
         <v>460</v>
